--- a/data/links.xlsx
+++ b/data/links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viraj\Desktop\saas le\PDF\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viraj\Desktop\saas_le\PDF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7377136F-8355-4A86-BBA9-BD065DE3F67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A137B5C1-5771-4862-8E15-F87B3E3ED2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DF9B368-B9AD-440A-A68A-45443E674D5D}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Links</t>
   </si>
   <si>
     <t>https://forms.pixika.ai/6721fc3e1f13cd8a2/qaindex.php?extId=8979274609&amp;empId=HO1234&amp;typetesting=QA</t>
-  </si>
-  <si>
-    <t>https://forms.pixika.ai/6721fc3e1f13cd8a2/qaindex.php?extId=8533089851&amp;empId=HO1234&amp;typetesting=QA</t>
-  </si>
-  <si>
-    <t>https://forms.pixika.ai/6721fc3e1f13cd8a2/qaindex.php?extId=8884738843&amp;empId=HO1234&amp;typetesting=QA</t>
   </si>
 </sst>
 </file>
@@ -419,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D034F73-E95F-4B99-AF00-EB84A9A75798}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,16 +434,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
